--- a/data/trans_dic/P10_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,21</t>
+          <t>8,44; 12,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 15,52</t>
+          <t>10,96; 15,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,32</t>
+          <t>7,33; 11,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,42; 14,37</t>
+          <t>9,44; 14,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,86</t>
+          <t>11,14; 14,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 25,4</t>
+          <t>20,6; 25,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 23,47</t>
+          <t>18,07; 23,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 25,79</t>
+          <t>20,67; 25,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 12,96</t>
+          <t>10,26; 13,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 20,51</t>
+          <t>16,99; 20,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 17,45</t>
+          <t>13,84; 17,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,83</t>
+          <t>16,73; 20,63</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,58</t>
+          <t>2,07; 3,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,57</t>
+          <t>3,71; 5,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,63</t>
+          <t>3,83; 5,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,25</t>
+          <t>4,13; 6,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,37</t>
+          <t>4,88; 7,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 10,97</t>
+          <t>8,09; 10,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,72</t>
+          <t>6,28; 8,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,69</t>
+          <t>6,23; 8,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,12</t>
+          <t>3,64; 5,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 7,75</t>
+          <t>5,99; 7,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,87</t>
+          <t>5,31; 6,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 7,01</t>
+          <t>5,47; 7,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,7</t>
+          <t>2,28; 5,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,65</t>
+          <t>1,66; 5,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,94</t>
+          <t>1,59; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,56</t>
+          <t>2,57; 5,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,71</t>
+          <t>3,06; 6,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,24</t>
+          <t>3,08; 7,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,6</t>
+          <t>2,95; 6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,0</t>
+          <t>5,19; 8,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,63</t>
+          <t>3,09; 5,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,57</t>
+          <t>2,69; 5,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,9</t>
+          <t>2,64; 5,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,85</t>
+          <t>4,43; 6,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,07</t>
+          <t>4,5; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,58</t>
+          <t>5,89; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,19</t>
+          <t>4,69; 6,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 6,78</t>
+          <t>5,16; 6,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,47</t>
+          <t>7,61; 9,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,2</t>
+          <t>12,71; 15,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 11,79</t>
+          <t>9,61; 11,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 11,89</t>
+          <t>9,44; 11,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,57</t>
+          <t>6,28; 7,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 11,18</t>
+          <t>9,74; 11,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 8,78</t>
+          <t>7,45; 8,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 9,19</t>
+          <t>7,77; 9,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P10_2_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 12,16</t>
+          <t>8,37; 11,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 15,38</t>
+          <t>10,67; 15,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,56</t>
+          <t>7,22; 11,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 14,83</t>
+          <t>11,16; 14,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,6; 25,12</t>
+          <t>20,58; 25,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,07; 23,61</t>
+          <t>17,94; 23,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,01</t>
+          <t>10,34; 12,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,99; 20,24</t>
+          <t>17,02; 20,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 17,49</t>
+          <t>13,83; 17,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,65</t>
+          <t>2,1; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,63</t>
+          <t>3,6; 5,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,73</t>
+          <t>3,69; 5,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 7,41</t>
+          <t>4,84; 7,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 10,94</t>
+          <t>8,18; 11,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,75</t>
+          <t>6,47; 8,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,15</t>
+          <t>3,68; 5,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,71</t>
+          <t>6,06; 7,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 6,78</t>
+          <t>5,25; 6,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,79</t>
+          <t>2,27; 5,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,89</t>
+          <t>1,59; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,81</t>
+          <t>1,58; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,89</t>
+          <t>3,07; 6,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,19</t>
+          <t>2,88; 7,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,54</t>
+          <t>3,01; 6,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 5,73</t>
+          <t>3,03; 5,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,58</t>
+          <t>2,72; 5,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,03</t>
+          <t>2,67; 4,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 5,98</t>
+          <t>4,49; 6,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,88; 7,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,27</t>
+          <t>4,56; 6,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,53</t>
+          <t>7,55; 9,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 15,03</t>
+          <t>12,74; 15,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 11,79</t>
+          <t>9,6; 11,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,53</t>
+          <t>6,28; 7,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,74; 11,18</t>
+          <t>9,67; 11,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,45; 8,81</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
